--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t xml:space="preserve">Név</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Y3QFQK</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">336001084</t>
   </si>
   <si>
@@ -137,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">RUOCIU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">308185765</t>
@@ -221,9 +221,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -312,12 +313,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -329,11 +334,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -417,7 +422,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +430,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
@@ -444,369 +449,411 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="V1" s="3"/>
+      <c r="D1" s="2" t="n">
+        <v>43364</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="V2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="V2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="V3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="V3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="V4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="V4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="V5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="V5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="V6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="V6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="V7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="V8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="V8" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="V9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="V9" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="V10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="V11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="V11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="V12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="V12" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="V13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="V13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="V14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="V14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="V15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="V15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="V16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="V16" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="V17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="V17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="V18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="V18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="V19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="V19" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="V20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="V20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="V21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="V21" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -20,201 +20,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+  <si>
+    <t xml:space="preserve">Neptun kód</t>
+  </si>
   <si>
     <t xml:space="preserve">Név</t>
   </si>
   <si>
-    <t xml:space="preserve">Neptun kód</t>
+    <t xml:space="preserve">Hiányzás</t>
   </si>
   <si>
     <t xml:space="preserve">2018.09.14</t>
   </si>
   <si>
+    <t xml:space="preserve">HCFECD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bordás Balázs</t>
   </si>
   <si>
-    <t xml:space="preserve">HCFECD</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">308190448</t>
   </si>
   <si>
+    <t xml:space="preserve">Y3QFQK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cseh Norbert</t>
   </si>
   <si>
-    <t xml:space="preserve">Y3QFQK</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">336001084</t>
   </si>
   <si>
+    <t xml:space="preserve">X67JVY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dombi Gréta</t>
   </si>
   <si>
-    <t xml:space="preserve">X67JVY</t>
-  </si>
-  <si>
     <t xml:space="preserve">363960978</t>
   </si>
   <si>
+    <t xml:space="preserve">IYWK7C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hornyák Bence</t>
   </si>
   <si>
-    <t xml:space="preserve">IYWK7C</t>
-  </si>
-  <si>
     <t xml:space="preserve">363968763</t>
   </si>
   <si>
+    <t xml:space="preserve">ZVC5K4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jakab Alexandra</t>
   </si>
   <si>
-    <t xml:space="preserve">ZVC5K4</t>
-  </si>
-  <si>
     <t xml:space="preserve">363969225</t>
   </si>
   <si>
+    <t xml:space="preserve">O0XDZH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Javorek Dénes</t>
   </si>
   <si>
-    <t xml:space="preserve">O0XDZH</t>
-  </si>
-  <si>
     <t xml:space="preserve">363969939</t>
   </si>
   <si>
+    <t xml:space="preserve">Q8QVAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kovács Levente Loránd</t>
   </si>
   <si>
-    <t xml:space="preserve">Q8QVAP</t>
-  </si>
-  <si>
     <t xml:space="preserve">336237246</t>
   </si>
   <si>
+    <t xml:space="preserve">Z43K7G</t>
+  </si>
+  <si>
     <t xml:space="preserve">László Bence</t>
   </si>
   <si>
-    <t xml:space="preserve">Z43K7G</t>
-  </si>
-  <si>
     <t xml:space="preserve">363973441</t>
   </si>
   <si>
+    <t xml:space="preserve">NK7XZU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lipták Krisztián</t>
   </si>
   <si>
-    <t xml:space="preserve">NK7XZU</t>
-  </si>
-  <si>
     <t xml:space="preserve">260280130</t>
   </si>
   <si>
+    <t xml:space="preserve">WFIIPZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magová Viktória</t>
   </si>
   <si>
-    <t xml:space="preserve">WFIIPZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">308189476</t>
   </si>
   <si>
+    <t xml:space="preserve">D4BRNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Máró Nándor</t>
   </si>
   <si>
-    <t xml:space="preserve">D4BRNA</t>
-  </si>
-  <si>
     <t xml:space="preserve">363975353</t>
   </si>
   <si>
+    <t xml:space="preserve">RUOCIU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pankotai Márk Sándor</t>
   </si>
   <si>
-    <t xml:space="preserve">RUOCIU</t>
-  </si>
-  <si>
     <t xml:space="preserve">308185765</t>
   </si>
   <si>
+    <t xml:space="preserve">GKUKIB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pap Dániel</t>
   </si>
   <si>
-    <t xml:space="preserve">GKUKIB</t>
-  </si>
-  <si>
     <t xml:space="preserve">363968591</t>
   </si>
   <si>
+    <t xml:space="preserve">SYO9D9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Révai István</t>
   </si>
   <si>
-    <t xml:space="preserve">SYO9D9</t>
-  </si>
-  <si>
     <t xml:space="preserve">260353156</t>
   </si>
   <si>
+    <t xml:space="preserve">WJDEYH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rozgonyi László</t>
   </si>
   <si>
-    <t xml:space="preserve">WJDEYH</t>
-  </si>
-  <si>
     <t xml:space="preserve">336238820</t>
   </si>
   <si>
+    <t xml:space="preserve">ANQHSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soós Noémi Emese</t>
   </si>
   <si>
-    <t xml:space="preserve">ANQHSP</t>
+    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">363961381</t>
   </si>
   <si>
+    <t xml:space="preserve">T9D0K1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szabó Dávid</t>
   </si>
   <si>
-    <t xml:space="preserve">T9D0K1</t>
-  </si>
-  <si>
     <t xml:space="preserve">336239770</t>
   </si>
   <si>
+    <t xml:space="preserve">H2543D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teket Dávid</t>
   </si>
   <si>
-    <t xml:space="preserve">H2543D</t>
-  </si>
-  <si>
     <t xml:space="preserve">336236195</t>
   </si>
   <si>
+    <t xml:space="preserve">GY3DHK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tenk Gergely</t>
   </si>
   <si>
-    <t xml:space="preserve">GY3DHK</t>
-  </si>
-  <si>
     <t xml:space="preserve">90970948</t>
   </si>
   <si>
+    <t xml:space="preserve">JXLETL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Truzsi Patrik</t>
   </si>
   <si>
-    <t xml:space="preserve">JXLETL</t>
-  </si>
-  <si>
     <t xml:space="preserve">363957881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobija Magdalena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pytel Przemysław</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,6 +269,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,19 +290,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -313,12 +324,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -334,13 +345,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -419,24 +450,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="8" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,415 +478,576 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>43364</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2" t="n">
+        <v>43371</v>
+      </c>
       <c r="G1" s="3"/>
-      <c r="V1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="V2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="W2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="V3" s="4" t="s">
+      <c r="C3" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="W3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="V4" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="W4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="V5" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="W5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="V6" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="V7" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="V8" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="W8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="V9" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="W9" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="V10" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="W10" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="V11" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="W11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="V12" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="W12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="V13" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="W13" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="V14" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="W14" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="V15" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="W15" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="V16" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="W16" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="V17" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="W17" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="V18" s="4" t="s">
-        <v>55</v>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="W18" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="V19" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="W19" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="V20" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="W20" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="V21" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="W21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D22:I22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:I22, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <f aca="false">IF(COUNTIF(D23:I23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:I23, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">308190448</t>
   </si>
   <si>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cseh Norbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">336001084</t>
@@ -274,6 +274,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,12 +325,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -450,10 +455,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,13 +467,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="10" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,532 +490,595 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="F1" s="3" t="n">
         <v>43364</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="3" t="n">
         <v>43371</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="W1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D2:J2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:J2, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="W2" s="4" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="X2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D3:J3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:J3, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="W3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="X3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D4:J4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:J4, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="X4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D5:J5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:J5, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="W5" s="4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="X5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D6:J6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:J6, "0"))</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="W6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="X6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D7:J7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:J7, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="W7" s="4" t="s">
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="X7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D8:J8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:J8, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="W8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="X8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D9:J9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:J9, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="W9" s="4" t="s">
+      <c r="F9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="X9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D10:J10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:J10, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="W10" s="4" t="s">
+      <c r="F10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="X10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D11:J11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:J11, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="W11" s="4" t="s">
+      <c r="F11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="X11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D12:J12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:J12, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="W12" s="4" t="s">
+      <c r="F12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="X12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
+      <c r="C13" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D13:J13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:J13, "0"))</f>
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="W13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="X13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D14:J14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:J14, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="W14" s="4" t="s">
+      <c r="F14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="X14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
+      <c r="C15" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D15:J15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:J15, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="W15" s="4" t="s">
+      <c r="F15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="X15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D16:J16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:J16, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="W16" s="4" t="s">
+      <c r="F16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="X16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D17:J17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:J17, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="W17" s="4" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="X17" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D18:J18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:J18, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="W18" s="4" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="X18" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
+      <c r="C19" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D19:J19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:J19, "0"))</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="W19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="X19" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D20:J20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:J20, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="W20" s="4" t="s">
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="X20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D21:J21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:J21, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="W21" s="4" t="s">
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="X21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1018,35 +1086,41 @@
       <c r="B22" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D22:I22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:I22, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="C22" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D22:J22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:J22, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <f aca="false">IF(COUNTIF(D23:I23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:I23, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="n">
+      <c r="C23" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D23:J23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:J23, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -233,13 +233,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,7 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -335,15 +341,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -355,23 +361,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -396,7 +402,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -462,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,13 +494,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="3" t="n">
         <v>43385</v>
       </c>
       <c r="F1" s="3" t="n">
@@ -1156,11 +1162,9 @@
       </c>
       <c r="C22" s="8" t="n">
         <f aca="false">IF(COUNTIF(D22:K22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:K22, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="n">
         <v>0</v>
       </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="12" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1184,9 @@
       </c>
       <c r="C23" s="8" t="n">
         <f aca="false">IF(COUNTIF(D23:K23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:K23, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="12" t="n">
         <v>0</v>
       </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="12" t="n">
         <v>1</v>
       </c>

--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -233,10 +233,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -332,7 +333,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,7 +350,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -361,7 +366,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -369,15 +374,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -466,25 +471,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="C2 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="11" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="12" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,658 +507,721 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43392</v>
+      </c>
+      <c r="F1" s="4" t="n">
         <v>43385</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="G1" s="4" t="n">
         <v>43378</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="H1" s="5" t="n">
         <v>43364</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="I1" s="5" t="n">
         <v>43371</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="Y1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D2:K2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:K2, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
+      <c r="C2" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D2:L2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:L2, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="Y2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="Z2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D3:K3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:K3, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D3:L3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:L3, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="Z3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D4:K4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:K4, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D4:L4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:L4, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="Y4" s="6" t="s">
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="Z4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D5:K5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:K5, "0"))</f>
+      <c r="C5" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D5:L5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:L5, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="Y5" s="6" t="s">
+      <c r="H5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="Z5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D6:K6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:K6, "0"))</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D6:L6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:L6, "0"))</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="Y6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="Z6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D7:K7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:K7, "0"))</f>
+      <c r="C7" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D7:L7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:L7, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="Y7" s="6" t="s">
+      <c r="H7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="Z7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D8:K8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:K8, "0"))</f>
+      <c r="C8" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D8:L8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:L8, "0"))</f>
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>6</v>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="Y8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="Z8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D9:K9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:K9, "0"))</f>
+      <c r="C9" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D9:L9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:L9, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="Y9" s="6" t="s">
+      <c r="H9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="Z9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D10:K10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:K10, "0"))</f>
+      <c r="C10" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D10:L10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:L10, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="Y10" s="6" t="s">
+      <c r="H10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="Z10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D11:K11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:K11, "0"))</f>
+      <c r="C11" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D11:L11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:L11, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="Y11" s="6" t="s">
+      <c r="H11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="Z11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D12:K12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:K12, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>6</v>
+      <c r="C12" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D12:L12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:L12, "0"))</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="Y12" s="6" t="s">
+      <c r="H12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="Z12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D13:K13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:K13, "0"))</f>
+      <c r="C13" s="9" t="str">
+        <f aca="false">IF(COUNTIF(D13:L13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:L13, "0"))</f>
+        <v>aláírás megtagadva</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="Z13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D14:L14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:L14, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="Z14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D15:L15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:L15, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="Z15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D16:L16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:L16, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="Z16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D17:L17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:L17, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="Z17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D18:L18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:L18, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="Z18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D19:L19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:L19, "0"))</f>
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="Y13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D14:K14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:K14, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="Y14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D15:K15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:K15, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="Y15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D16:K16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:K16, "0"))</f>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="Z19" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D20:L20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:L20, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="Y16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D17:K17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:K17, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="Y17" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D18:K18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:K18, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="Y18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D19:K19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:K19, "0"))</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="Y19" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D20:K20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:K20, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="Y20" s="6" t="s">
+      <c r="H20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="Z20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D21:K21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:K21, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>6</v>
+      <c r="C21" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D21:L21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:L21, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="Y21" s="6" t="s">
+      <c r="H21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="Z21" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1160,43 +1229,45 @@
       <c r="B22" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D22:K22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:K22, "0"))</f>
+      <c r="C22" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D22:L22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:L22, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="n">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="n">
-        <f aca="false">IF(COUNTIF(D23:K23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:K23, "0"))</f>
+      <c r="C23" s="9" t="n">
+        <f aca="false">IF(COUNTIF(D23:L23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:L23, "0"))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="n">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Attendance/f810.xlsx
+++ b/Attendance/f810.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="C2 B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,14 +483,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="12" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,23 +508,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43399</v>
+      </c>
+      <c r="F1" s="4" t="n">
         <v>43392</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="G1" s="4" t="n">
         <v>43385</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="H1" s="4" t="n">
         <v>43378</v>
       </c>
-      <c r="H1" s="5" t="n">
+      <c r="I1" s="5" t="n">
         <v>43364</v>
       </c>
-      <c r="I1" s="5" t="n">
+      <c r="J1" s="5" t="n">
         <v>43371</v>
       </c>
-      <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="Z1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -533,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D2:L2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:L2, "0"))</f>
+        <f aca="false">IF(COUNTIF(D2:M2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:M2, "0"))</f>
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -546,17 +550,20 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" s="12"/>
-      <c r="Z2" s="7" t="s">
+      <c r="L2" s="12"/>
+      <c r="AA2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -568,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D3:L3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:L3, "0"))</f>
+        <f aca="false">IF(COUNTIF(D3:M3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:M3, "0"))</f>
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -578,20 +585,23 @@
         <v>6</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>7</v>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K3" s="12"/>
-      <c r="Z3" s="7" t="s">
+      <c r="L3" s="12"/>
+      <c r="AA3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -603,14 +613,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D4:L4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:L4, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D4:M4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:M4, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>6</v>
@@ -618,15 +628,18 @@
       <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" s="12"/>
-      <c r="Z4" s="7" t="s">
+      <c r="L4" s="12"/>
+      <c r="AA4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -638,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D5:L5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:L5, "0"))</f>
+        <f aca="false">IF(COUNTIF(D5:M5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:M5, "0"))</f>
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -653,15 +666,18 @@
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K5" s="12"/>
-      <c r="Z5" s="7" t="s">
+      <c r="L5" s="12"/>
+      <c r="AA5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -673,14 +689,14 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D6:L6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:L6, "0"))</f>
+        <f aca="false">IF(COUNTIF(D6:M6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:M6, "0"))</f>
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>7</v>
@@ -688,15 +704,18 @@
       <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" s="12"/>
-      <c r="Z6" s="7" t="s">
+      <c r="L6" s="12"/>
+      <c r="AA6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -708,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D7:L7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:L7, "0"))</f>
+        <f aca="false">IF(COUNTIF(D7:M7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:M7, "0"))</f>
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -718,20 +737,23 @@
         <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K7" s="12"/>
-      <c r="Z7" s="7" t="s">
+      <c r="L7" s="12"/>
+      <c r="AA7" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -743,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D8:L8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:L8, "0"))</f>
+        <f aca="false">IF(COUNTIF(D8:M8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:M8, "0"))</f>
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -753,20 +775,23 @@
         <v>6</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K8" s="12"/>
-      <c r="Z8" s="7" t="s">
+      <c r="L8" s="12"/>
+      <c r="AA8" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -778,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D9:L9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:L9, "0"))</f>
+        <f aca="false">IF(COUNTIF(D9:M9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:M9, "0"))</f>
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -793,15 +818,18 @@
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" s="12"/>
-      <c r="Z9" s="7" t="s">
+      <c r="L9" s="12"/>
+      <c r="AA9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -813,7 +841,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D10:L10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:L10, "0"))</f>
+        <f aca="false">IF(COUNTIF(D10:M10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:M10, "0"))</f>
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -828,15 +856,18 @@
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K10" s="12"/>
-      <c r="Z10" s="7" t="s">
+      <c r="L10" s="12"/>
+      <c r="AA10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -848,7 +879,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D11:L11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:L11, "0"))</f>
+        <f aca="false">IF(COUNTIF(D11:M11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:M11, "0"))</f>
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -863,15 +894,18 @@
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K11" s="12"/>
-      <c r="Z11" s="7" t="s">
+      <c r="L11" s="12"/>
+      <c r="AA11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -883,30 +917,33 @@
         <v>38</v>
       </c>
       <c r="C12" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D12:L12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:L12, "0"))</f>
+        <f aca="false">IF(COUNTIF(D12:M12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:M12, "0"))</f>
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K12" s="12"/>
-      <c r="Z12" s="7" t="s">
+      <c r="L12" s="12"/>
+      <c r="AA12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -918,30 +955,33 @@
         <v>41</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f aca="false">IF(COUNTIF(D13:L13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:L13, "0"))</f>
+        <f aca="false">IF(COUNTIF(D13:M13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:M13, "0"))</f>
         <v>aláírás megtagadva</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="K13" s="12"/>
-      <c r="Z13" s="7" t="s">
+      <c r="L13" s="12"/>
+      <c r="AA13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -953,7 +993,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D14:L14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:L14, "0"))</f>
+        <f aca="false">IF(COUNTIF(D14:M14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:M14, "0"))</f>
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -963,20 +1003,23 @@
         <v>6</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K14" s="12"/>
-      <c r="Z14" s="7" t="s">
+      <c r="L14" s="12"/>
+      <c r="AA14" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -988,7 +1031,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D15:L15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:L15, "0"))</f>
+        <f aca="false">IF(COUNTIF(D15:M15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:M15, "0"))</f>
         <v>1</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1003,15 +1046,18 @@
       <c r="G15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K15" s="12"/>
-      <c r="Z15" s="7" t="s">
+      <c r="L15" s="12"/>
+      <c r="AA15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1023,30 +1069,33 @@
         <v>50</v>
       </c>
       <c r="C16" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D16:L16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:L16, "0"))</f>
+        <f aca="false">IF(COUNTIF(D16:M16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:M16, "0"))</f>
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K16" s="12"/>
-      <c r="Z16" s="7" t="s">
+      <c r="L16" s="12"/>
+      <c r="AA16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1058,30 +1107,33 @@
         <v>53</v>
       </c>
       <c r="C17" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D17:L17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:L17, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D17:M17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:M17, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="Z17" s="7" t="s">
+      <c r="L17" s="12"/>
+      <c r="AA17" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1093,30 +1145,33 @@
         <v>56</v>
       </c>
       <c r="C18" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D18:L18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:L18, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(D18:M18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:M18, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="Z18" s="7" t="s">
+      <c r="L18" s="12"/>
+      <c r="AA18" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1128,30 +1183,33 @@
         <v>59</v>
       </c>
       <c r="C19" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D19:L19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:L19, "0"))</f>
+        <f aca="false">IF(COUNTIF(D19:M19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:M19, "0"))</f>
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K19" s="12"/>
-      <c r="Z19" s="7" t="s">
+      <c r="L19" s="12"/>
+      <c r="AA19" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1163,7 +1221,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D20:L20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:L20, "0"))</f>
+        <f aca="false">IF(COUNTIF(D20:M20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:M20, "0"))</f>
         <v>0</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -1178,15 +1236,18 @@
       <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K20" s="12"/>
-      <c r="Z20" s="7" t="s">
+      <c r="L20" s="12"/>
+      <c r="AA20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1198,30 +1259,33 @@
         <v>65</v>
       </c>
       <c r="C21" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D21:L21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:L21, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D21:M21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:M21, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="K21" s="12"/>
-      <c r="Z21" s="7" t="s">
+      <c r="L21" s="12"/>
+      <c r="AA21" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1230,14 +1294,14 @@
         <v>67</v>
       </c>
       <c r="C22" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D22:L22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:L22, "0"))</f>
+        <f aca="false">IF(COUNTIF(D22:M22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:M22, "0"))</f>
         <v>0</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="13" t="n">
         <v>1</v>
       </c>
@@ -1245,6 +1309,9 @@
         <v>1</v>
       </c>
       <c r="I22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,14 +1320,14 @@
         <v>68</v>
       </c>
       <c r="C23" s="9" t="n">
-        <f aca="false">IF(COUNTIF(D23:L23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:L23, "0"))</f>
+        <f aca="false">IF(COUNTIF(D23:M23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:M23, "0"))</f>
         <v>0</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="E23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="13" t="n">
         <v>1</v>
       </c>
@@ -1268,6 +1335,9 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13" t="n">
         <v>1</v>
       </c>
     </row>
